--- a/experiment/nonconvex/MitsosBarton2006Ex314/Experimentos_Generador/MitsosBarton2006Ex314__C_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex314/Experimentos_Generador/MitsosBarton2006Ex314__C_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -60,22 +60,22 @@
     <t>-1 + x</t>
   </si>
   <si>
-    <t>-0.4506741868524874</t>
+    <t>3.3000000000000007</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.1869798624383242</t>
+    <t>0.75</t>
   </si>
   <si>
     <t>-1 - x</t>
   </si>
   <si>
-    <t>-1.5493258131475125</t>
-  </si>
-  <si>
-    <t>0.3307618713826723</t>
+    <t>-5.300000000000001</t>
+  </si>
+  <si>
+    <t>0.49</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,40 +87,37 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-1 - 2.215361109663986y</t>
-  </si>
-  <si>
-    <t>-2.758019950939561</t>
+    <t>-1 + 12.283122987949962y</t>
+  </si>
+  <si>
+    <t>42.60508660722236</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.4716596798672763</t>
-  </si>
-  <si>
-    <t>-0.6451576973310351</t>
-  </si>
-  <si>
-    <t>-0.812745084829267</t>
-  </si>
-  <si>
-    <t>-1 - 0.6331320066584811y</t>
-  </si>
-  <si>
-    <t>-1.502427660406493</t>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.9335395290608393</t>
+  </si>
+  <si>
+    <t>-1 - 0.7611731534448762y</t>
+  </si>
+  <si>
+    <t>-3.7021646947293103</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.9232357192894672</t>
-  </si>
-  <si>
-    <t>0.11089915863658728</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>5.433848077011133</t>
   </si>
   <si>
     <t>x</t>
@@ -129,25 +126,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>0.5493258131475126</t>
-  </si>
-  <si>
-    <t>0.7935590921365445</t>
+    <t>4.300000000000001</t>
+  </si>
+  <si>
+    <t>3.55</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>1.5490163757819921</t>
+    <t>-15.852661244703896</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-0.08800162400915823</t>
-  </si>
-  <si>
-    <t>-3.5284245131564163</t>
+    <t>-8.121173153444877</t>
+  </si>
+  <si>
+    <t>-4.659571334422438</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -649,7 +646,7 @@
         <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -667,18 +664,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -696,12 +693,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -719,17 +716,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -747,12 +744,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.36686799334151887</v>
+        <v>0.23882684655512376</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/nonconvex/MitsosBarton2006Ex314/Experimentos_Generador/MitsosBarton2006Ex314__C_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex314/Experimentos_Generador/MitsosBarton2006Ex314__C_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -57,25 +57,25 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>-1 + x</t>
-  </si>
-  <si>
-    <t>3.3000000000000007</t>
+    <t>-2.1 + x</t>
+  </si>
+  <si>
+    <t>1.1</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>-1 - x</t>
-  </si>
-  <si>
-    <t>-5.300000000000001</t>
-  </si>
-  <si>
-    <t>0.49</t>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>2.1 - x</t>
+  </si>
+  <si>
+    <t>-3.1</t>
+  </si>
+  <si>
+    <t>0.27</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,37 +87,40 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-1 + 12.283122987949962y</t>
-  </si>
-  <si>
-    <t>42.60508660722236</t>
+    <t>-51.117647058823536 + 15.490196078431374y</t>
+  </si>
+  <si>
+    <t>50.117647058823536</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.65</t>
+    <t>0.22</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>2.9335395290608393</t>
-  </si>
-  <si>
-    <t>-1 - 0.7611731534448762y</t>
-  </si>
-  <si>
-    <t>-3.7021646947293103</t>
+    <t>7.9</t>
+  </si>
+  <si>
+    <t>1.617 - 0.49y</t>
+  </si>
+  <si>
+    <t>-2.617</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>5.433848077011133</t>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>-2.5</t>
+  </si>
+  <si>
+    <t>-7.199999999999999</t>
   </si>
   <si>
     <t>x</t>
@@ -126,25 +129,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>4.300000000000001</t>
-  </si>
-  <si>
-    <t>3.55</t>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>3.3000000000000003</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-15.852661244703896</t>
+    <t>-11.874443137254906</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-8.121173153444877</t>
-  </si>
-  <si>
-    <t>-4.659571334422438</t>
+    <t>-3.66</t>
+  </si>
+  <si>
+    <t>-11.191</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -646,7 +649,7 @@
         <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -664,18 +667,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -693,12 +696,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -716,17 +719,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -744,12 +747,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.23882684655512376</v>
+        <v>0.51</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/nonconvex/MitsosBarton2006Ex314/Experimentos_Generador/MitsosBarton2006Ex314__C_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex314/Experimentos_Generador/MitsosBarton2006Ex314__C_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -57,25 +57,25 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>-2.1 + x</t>
-  </si>
-  <si>
-    <t>1.1</t>
+    <t>-0.9 + x</t>
+  </si>
+  <si>
+    <t>-0.09999999999999998</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>2.1 - x</t>
-  </si>
-  <si>
-    <t>-3.1</t>
-  </si>
-  <si>
-    <t>0.27</t>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>0.8999999999999999 - x</t>
+  </si>
+  <si>
+    <t>-1.9</t>
+  </si>
+  <si>
+    <t>0.02</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,40 +87,22 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-51.117647058823536 + 15.490196078431374y</t>
-  </si>
-  <si>
-    <t>50.117647058823536</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-1</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>7.9</t>
-  </si>
-  <si>
-    <t>1.617 - 0.49y</t>
-  </si>
-  <si>
-    <t>-2.617</t>
+    <t>0.29</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t>-2.5</t>
-  </si>
-  <si>
-    <t>-7.199999999999999</t>
+    <t>0.52</t>
   </si>
   <si>
     <t>x</t>
@@ -129,25 +111,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>3.3000000000000003</t>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>2.7</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-11.874443137254906</t>
+    <t>-6.390000000000001</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-3.66</t>
-  </si>
-  <si>
-    <t>-11.191</t>
+    <t>-0.9199999999999999</t>
+  </si>
+  <si>
+    <t>-9.612000000000002</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -626,30 +608,30 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -667,18 +649,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -696,12 +678,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -719,17 +701,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -747,12 +729,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.51</v>
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
